--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -32,6 +32,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">BFS jest zbyt pamięciożerne</t>
         </r>
@@ -44,8 +45,22 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Wynika z ilości wierzchołków. BFS jest zbyt pamięciożerne.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Problem klonowania?</t>
         </r>
       </text>
     </comment>
@@ -56,6 +71,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Numerujemy wszystkie wierzchołki.
 Iterujemy od najmniejszego wierzchołka do największego.
@@ -69,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t xml:space="preserve">Fakty</t>
   </si>
@@ -88,6 +104,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">A</t>
     </r>
@@ -97,6 +114,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">n </t>
     </r>
@@ -105,6 +123,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">= (5/3)*4</t>
     </r>
@@ -114,6 +133,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">n</t>
     </r>
@@ -122,6 +142,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-(2/3)</t>
     </r>
@@ -167,6 +188,16 @@
   </si>
   <si>
     <t xml:space="preserve">Klonowanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przechowywanie grafu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graf jako lista zbiorów. Poszczególne zbiory reprezentują wierzchołki. W zbiorach znajdują się numery wierzchołków, z którymi dany wierzchołek jest połączony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternatywa:
+Specjalne klasy o nazwie Vertex oraz Edge. W liście trzymane są Vertex. Edge posiada 2 Vertex oraz wartość.</t>
   </si>
 </sst>
 </file>
@@ -181,6 +212,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -202,12 +234,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -418,16 +452,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.34"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -572,8 +606,49 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F3"/>
@@ -591,6 +666,9 @@
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F22"/>
+    <mergeCell ref="D23:F27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t xml:space="preserve">Fakty</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t xml:space="preserve">DFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zaznaczanie przebytego wierzchołka?</t>
   </si>
   <si>
     <t xml:space="preserve">Pre-order</t>
@@ -282,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -304,6 +307,13 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -330,7 +340,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -373,6 +383,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -455,7 +469,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -563,31 +577,34 @@
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
+      <c r="G10" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D13" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -601,21 +618,21 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D18" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -641,11 +658,11 @@
       <c r="F22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="D23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="20">

--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -74,8 +74,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Numerujemy wszystkie wierzchołki.
-Iterujemy od najmniejszego wierzchołka do największego.
-Szukamy wszystkich ścieżek od wierzchołka na którym jesteśmy do wierzchołka o liczbie największej. 
+Iterujemy od wierzchołka o numerze najmniejszym do wierzchołka o numerze największym.
+Szukamy wszystkich ścieżek od numeru wierzchołka dla którego obliczamy sumę ścieżek w danej iteracji do wierzchołka o numerze największym poprzez wykorzystanie algorytmu Deep First Search. 
 </t>
         </r>
       </text>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t xml:space="preserve">Fakty</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t xml:space="preserve">Algorytmy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testowanie</t>
   </si>
   <si>
     <t xml:space="preserve">Ilość wierzchołków</t>
@@ -106,7 +109,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">A</t>
+      <t xml:space="preserve">V</t>
     </r>
     <r>
       <rPr>
@@ -116,7 +119,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">n </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -154,12 +157,40 @@
     <t xml:space="preserve">Brutalny</t>
   </si>
   <si>
+    <t xml:space="preserve">Czasowe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pamięciowe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poprawnościowe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maksymalnie 3 krawędzie na wierzchołek</t>
   </si>
   <si>
+    <t xml:space="preserve">cProfile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory-profiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unittest</t>
+  </si>
+  <si>
     <t xml:space="preserve">Początkowy stan jest kopiowany czterokrotnie i scalany przez dwa dodane wierzchołki, których krawędzie mają taką samą, określoną wartość</t>
   </si>
   <si>
+    <t xml:space="preserve">Pozwala na kalibrację profilowania, przez co ograniczany jest wpływ profilowania na wyniki czasu wykonywania.
+Przedstawia wpływ czasowy poszczególnych funkcji na działanie programu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przedstawia wpływ pamięciowy poszczególnych funkcji na działanie programu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testy jednostkowe</t>
+  </si>
+  <si>
     <t xml:space="preserve">Symetria względem poziomu</t>
   </si>
   <si>
@@ -169,7 +200,7 @@
     <t xml:space="preserve">Wierzchołki dodawane mają zawsze 3 krawędzie</t>
   </si>
   <si>
-    <t xml:space="preserve">Wierzchołki liściasto-scalające mają zawsze 2 krawędzie</t>
+    <t xml:space="preserve">Wierzchołki scalające, należące do poprzedniego grafu mają zawsze 2 krawędzie</t>
   </si>
   <si>
     <t xml:space="preserve">Przeszukiwanie</t>
@@ -178,12 +209,12 @@
     <t xml:space="preserve">DFS</t>
   </si>
   <si>
-    <t xml:space="preserve">Zaznaczanie przebytego wierzchołka?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pre-order</t>
   </si>
   <si>
+    <t xml:space="preserve">Po obliczeniu sumy ścieżek w grafie i potem dodaniu wierzchołka do tego grafu, suma ścieżek dla tego wierzchołka będzie równa sumie ścieżek dla sąsiadującego wierzchołka plus ilość wierzchołków pomnożona przez koszt krawędzi dodanej do grafu.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Numerowanie</t>
   </si>
   <si>
@@ -197,10 +228,20 @@
   </si>
   <si>
     <t xml:space="preserve">Graf jako lista zbiorów. Poszczególne zbiory reprezentują wierzchołki. W zbiorach znajdują się numery wierzchołków, z którymi dany wierzchołek jest połączony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilość krawędzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E = V-1</t>
   </si>
   <si>
     <t xml:space="preserve">Alternatywa:
 Specjalne klasy o nazwie Vertex oraz Edge. W liście trzymane są Vertex. Edge posiada 2 Vertex oraz wartość.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozwiązanie właściwe: 
+Graf jako lista wierzchołków. Indeks wierzchołka zgadza się z numerem wierzchołka. Każdy wierzchołek posiada listę krawędzi. Krawędź jest reprezentowana jako krotka której pierwszym elementem jest wierzchołek będący drugim końcem krawędzi, a drugim elementem jest wartość tej krawędzi.</t>
   </si>
 </sst>
 </file>
@@ -247,7 +288,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,7 +298,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFED1C24"/>
-        <bgColor rgb="FF993300"/>
+        <bgColor rgb="FFF04E4D"/>
       </patternFill>
     </fill>
     <fill>
@@ -268,8 +309,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5565AF"/>
-        <bgColor rgb="FF3366FF"/>
+        <fgColor rgb="FF0066B3"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -284,8 +325,14 @@
         <bgColor rgb="FFCC99FF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF04E4D"/>
+        <bgColor rgb="FFED1C24"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -307,13 +354,6 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -373,19 +413,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -422,7 +462,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0066B3"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -445,8 +485,8 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF5565AF"/>
+      <rgbColor rgb="FFF04E4D"/>
+      <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFBD7CB5"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF62A73B"/>
@@ -466,17 +506,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -492,192 +534,300 @@
       <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="H2" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8"/>
+      <c r="A3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
+      <c r="J3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="D4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="J4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="8"/>
+      <c r="A9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="9"/>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="D10" s="10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="0" t="s">
-        <v>15</v>
-      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="D11" s="10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="9"/>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="D15" s="10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="D16" s="10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="A20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="D23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="26">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="D2:F3"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="D4:F7"/>
+    <mergeCell ref="J4:J18"/>
+    <mergeCell ref="K4:K10"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="A9:B11"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A12:B19"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
@@ -686,6 +836,7 @@
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F22"/>
     <mergeCell ref="D23:F27"/>
+    <mergeCell ref="D28:F36"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t xml:space="preserve">Fakty</t>
   </si>
@@ -102,53 +102,7 @@
     <t xml:space="preserve">Ilość wierzchołków</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">V</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">= (5/3)*4</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-(2/3)</t>
-    </r>
+    <t xml:space="preserve">V = (5/3)*4n-(2/3)</t>
   </si>
   <si>
     <t xml:space="preserve">Suma wartości krawędzi po wszystkich możliwych ścieżkach</t>
@@ -234,6 +188,9 @@
   </si>
   <si>
     <t xml:space="preserve">E = V-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wagi krawędzi każdego wierzchołka, który ma dwa krawędzie, są różnowartościowe. Inaczej jest w przypadku wierzchołków, które posiadają trzy krawędzie. U nich są to identyczne wartości.</t>
   </si>
   <si>
     <t xml:space="preserve">Alternatywa:
@@ -251,7 +208,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -272,20 +229,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -332,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -354,6 +297,13 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -380,7 +330,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -426,6 +376,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -509,7 +463,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -765,34 +719,48 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -803,14 +771,14 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D28" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="D28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="J1:L1"/>
@@ -835,6 +803,7 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F22"/>
+    <mergeCell ref="A21:B26"/>
     <mergeCell ref="D23:F27"/>
     <mergeCell ref="D28:F36"/>
   </mergeCells>

--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -38,6 +38,97 @@
         </r>
       </text>
     </comment>
+    <comment ref="D14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Sum (3*V</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="subscript"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">i-1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">*
+koszt_klonowania+2+3*V</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="subscript"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">i-1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">), i=1 to i=n.
+V</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="subscript"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">i-1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">= (5/3)*4</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="superscript"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">i-1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">-(2/3)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D15" authorId="0">
       <text>
         <r>
@@ -76,7 +167,49 @@
           <t xml:space="preserve">Numerujemy wszystkie wierzchołki.
 Iterujemy od wierzchołka o numerze najmniejszym do wierzchołka o numerze największym.
 Szukamy wszystkich ścieżek od numeru wierzchołka dla którego obliczamy sumę ścieżek w danej iteracji do wierzchołka o numerze największym poprzez wykorzystanie algorytmu Deep First Search. 
-</t>
+Złożoność:
+Czasowa: 
+Algorytm DFS ma złożoność liniową zależną od ilości wierzchołków. Algorytm DFS jest wykonywany dla każdego wierzchołka.
+Pamięciowa:
+k</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="subscript"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">n</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> = 2*k</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="subscript"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">n-1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">+2, gdzie k to długość ścieżki, a n to numer kroku.</t>
         </r>
       </text>
     </comment>
@@ -208,7 +341,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -229,6 +362,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -463,7 +610,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t xml:space="preserve">Fakty</t>
   </si>
@@ -328,6 +328,9 @@
   <si>
     <t xml:space="preserve">Alternatywa:
 Specjalne klasy o nazwie Vertex oraz Edge. W liście trzymane są Vertex. Edge posiada 2 Vertex oraz wartość.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graf jest dwudzielny</t>
   </si>
   <si>
     <t xml:space="preserve">Rozwiązanie właściwe: 
@@ -610,7 +613,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -913,19 +916,23 @@
       <c r="F26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="10"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D28" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="J1:L1"/>
@@ -952,6 +959,7 @@
     <mergeCell ref="D18:F22"/>
     <mergeCell ref="A21:B26"/>
     <mergeCell ref="D23:F27"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="D28:F36"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t xml:space="preserve">Fakty</t>
   </si>
@@ -232,6 +232,12 @@
     <t xml:space="preserve">Testowanie</t>
   </si>
   <si>
+    <t xml:space="preserve">Czasy wykoniania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba kroków rozbudowy grafu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ilość wierzchołków</t>
   </si>
   <si>
@@ -253,6 +259,9 @@
     <t xml:space="preserve">Poprawnościowe</t>
   </si>
   <si>
+    <t xml:space="preserve">Algorytm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maksymalnie 3 krawędzie na wierzchołek</t>
   </si>
   <si>
@@ -263,6 +272,27 @@
   </si>
   <si>
     <t xml:space="preserve">unittest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pierwszy (oparty na DFS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">798.8 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204 s</t>
   </si>
   <si>
     <t xml:space="preserve">Początkowy stan jest kopiowany czterokrotnie i scalany przez dwa dodane wierzchołki, których krawędzie mają taką samą, określoną wartość</t>
@@ -278,10 +308,34 @@
     <t xml:space="preserve">Testy jednostkowe</t>
   </si>
   <si>
+    <t xml:space="preserve">Drugi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.009 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.021 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.039 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.065 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1 ms</t>
+  </si>
+  <si>
     <t xml:space="preserve">Symetria względem poziomu</t>
   </si>
   <si>
     <t xml:space="preserve">Symetria względem pionu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wykorzystanie pamięci</t>
   </si>
   <si>
     <t xml:space="preserve">Wierzchołki dodawane mają zawsze 3 krawędzie</t>
@@ -381,7 +435,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +446,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFED1C24"/>
         <bgColor rgb="FFF04E4D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADC5E7"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD58A"/>
+        <bgColor rgb="FFBEE3D3"/>
       </patternFill>
     </fill>
     <fill>
@@ -422,6 +488,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF04E4D"/>
         <bgColor rgb="FFED1C24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEE3D3"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8AA97"/>
+        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -480,7 +558,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -497,31 +575,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -529,7 +615,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -558,7 +656,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFADD58A"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -578,10 +676,10 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFBEE3D3"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFADC5E7"/>
+      <rgbColor rgb="FFF8AA97"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -610,19 +708,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T15" activeCellId="0" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,299 +745,424 @@
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
+      <c r="O1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="H2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="T2" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="U2" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="J3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="10" t="s">
+      <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="J3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="D4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="J4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="O6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="O7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="D4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="J4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="9" t="s">
+      <c r="P7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" s="12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="O8" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="9"/>
+      <c r="A9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="13"/>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="O9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="D10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="D10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="D11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="J11" s="9"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="D11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9"/>
+      <c r="A12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="13"/>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="J12" s="9"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="J14" s="9"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="D15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="J15" s="9"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="D15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="D16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="J16" s="9"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="D16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="J17" s="9"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="D18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="A21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="A27" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D28" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="D28" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="P1:U1"/>
     <mergeCell ref="D2:F3"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="D4:F7"/>
@@ -944,6 +1171,7 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="P6:U6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="A9:B11"/>
     <mergeCell ref="D9:F9"/>

--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t xml:space="preserve">Fakty</t>
   </si>
@@ -232,12 +232,15 @@
     <t xml:space="preserve">Testowanie</t>
   </si>
   <si>
-    <t xml:space="preserve">Czasy wykoniania</t>
+    <t xml:space="preserve">Średnie czasy wykonania</t>
   </si>
   <si>
     <t xml:space="preserve">Liczba kroków rozbudowy grafu</t>
   </si>
   <si>
+    <t xml:space="preserve">Liczba powtórzeń wykonania programu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ilość wierzchołków</t>
   </si>
   <si>
@@ -280,16 +283,16 @@
     <t xml:space="preserve">0.4 ms</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">798.8 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6 s</t>
+    <t xml:space="preserve">3.8 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">770 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 s</t>
   </si>
   <si>
     <t xml:space="preserve">204 s</t>
@@ -308,37 +311,58 @@
     <t xml:space="preserve">Testy jednostkowe</t>
   </si>
   <si>
-    <t xml:space="preserve">Drugi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.009 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.021 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.039 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.065 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1 ms</t>
+    <t xml:space="preserve">Drugi (Rekurencyjny)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0037 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0339 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 ms</t>
   </si>
   <si>
     <t xml:space="preserve">Symetria względem poziomu</t>
   </si>
   <si>
+    <t xml:space="preserve">Drugi (Iteracyjny)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00108 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00203 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00291 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00392 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00475 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00574 ms</t>
+  </si>
+  <si>
     <t xml:space="preserve">Symetria względem pionu</t>
   </si>
   <si>
+    <t xml:space="preserve">Wierzchołki dodawane mają zawsze 3 krawędzie</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wykorzystanie pamięci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wierzchołki dodawane mają zawsze 3 krawędzie</t>
   </si>
   <si>
     <t xml:space="preserve">Wierzchołki scalające, należące do poprzedniego grafu mają zawsze 2 krawędzie</t>
@@ -398,7 +422,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -421,6 +445,12 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <vertAlign val="subscript"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -435,7 +465,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,8 +492,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF450"/>
+        <bgColor rgb="FFFFF685"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF450"/>
       </patternFill>
     </fill>
     <fill>
@@ -500,6 +536,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8AA97"/>
         <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF685"/>
+        <bgColor rgb="FFFFF450"/>
       </patternFill>
     </fill>
   </fills>
@@ -558,7 +600,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -583,27 +625,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -611,23 +657,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -668,7 +718,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF450"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -677,7 +727,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFBEE3D3"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFF685"/>
       <rgbColor rgb="FFADC5E7"/>
       <rgbColor rgb="FFF8AA97"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -708,10 +758,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T15" activeCellId="0" sqref="T15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T6" activeCellId="0" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -727,7 +777,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,413 +806,457 @@
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
+      <c r="V1" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="H2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="U2" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="H2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="S2" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="T2" s="12" t="n">
+      <c r="V2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="J3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="D4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="J4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="17" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="O5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="17" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="O8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="J3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="D4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="J4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="O6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="O7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="T7" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="U7" s="12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="O8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="13"/>
+      <c r="A9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="14"/>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="O9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="O9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="U9" s="13" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="D10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="D10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="O10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="D11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="J11" s="13"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="D11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="J11" s="14"/>
+      <c r="O11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="13"/>
+      <c r="A12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="14"/>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="J12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="O12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="D13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="J14" s="13"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="D15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="J15" s="13"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="D15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="D16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="J16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="D16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="J17" s="13"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="D18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="A20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="A21" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="D23" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="D23" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="A27" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D28" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="D28" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="P1:U1"/>
+    <mergeCell ref="V1:V2"/>
     <mergeCell ref="D2:F3"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="D4:F7"/>
@@ -1171,8 +1265,8 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="P6:U6"/>
     <mergeCell ref="A7:B8"/>
+    <mergeCell ref="P8:U8"/>
     <mergeCell ref="A9:B11"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>

--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t xml:space="preserve">Fakty</t>
   </si>
@@ -311,76 +311,43 @@
     <t xml:space="preserve">Testy jednostkowe</t>
   </si>
   <si>
+    <t xml:space="preserve">Symetria względem poziomu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symetria względem pionu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wierzchołki dodawane mają zawsze 3 krawędzie</t>
+  </si>
+  <si>
     <t xml:space="preserve">Drugi (Rekurencyjny)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0037 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0339 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symetria względem poziomu</t>
+    <t xml:space="preserve">Wierzchołki scalające, należące do poprzedniego grafu mają zawsze 2 krawędzie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przeszukiwanie</t>
   </si>
   <si>
     <t xml:space="preserve">Drugi (Iteracyjny)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00108 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00203 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00291 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00392 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00475 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00574 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symetria względem pionu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wierzchołki dodawane mają zawsze 3 krawędzie</t>
+    <t xml:space="preserve">DFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q(n) dla iteracyjnego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Po obliczeniu sumy ścieżek w grafie i potem dodaniu wierzchołka do tego grafu, suma ścieżek dla tego wierzchołka będzie równa sumie ścieżek dla sąsiadującego wierzchołka plus ilość wierzchołków pomnożona przez koszt krawędzi dodanej do grafu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerowanie</t>
   </si>
   <si>
     <t xml:space="preserve">Wykorzystanie pamięci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wierzchołki scalające, należące do poprzedniego grafu mają zawsze 2 krawędzie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przeszukiwanie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Po obliczeniu sumy ścieżek w grafie i potem dodaniu wierzchołka do tego grafu, suma ścieżek dla tego wierzchołka będzie równa sumie ścieżek dla sąsiadującego wierzchołka plus ilość wierzchołków pomnożona przez koszt krawędzi dodanej do grafu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numerowanie</t>
   </si>
   <si>
     <t xml:space="preserve">Niepotrzebne, wynika z użycia listy</t>
@@ -465,7 +432,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,13 +502,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8AA97"/>
-        <bgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF685"/>
         <bgColor rgb="FFFFF450"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD3C1"/>
+        <bgColor rgb="FFFFF685"/>
       </patternFill>
     </fill>
   </fills>
@@ -600,7 +573,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -675,6 +648,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -731,7 +708,7 @@
       <rgbColor rgb="FFADC5E7"/>
       <rgbColor rgb="FFF8AA97"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFCD3C1"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -758,10 +735,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T6" activeCellId="0" sqref="T6"/>
+      <selection pane="topLeft" activeCell="W21" activeCellId="0" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -806,7 +783,8 @@
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5"/>
+      <c r="W1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -838,24 +816,27 @@
         <v>14</v>
       </c>
       <c r="P2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="13" t="n">
+      <c r="R2" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="R2" s="13" t="n">
+      <c r="S2" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="S2" s="13" t="n">
+      <c r="T2" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="T2" s="13" t="n">
+      <c r="U2" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="U2" s="13" t="n">
+      <c r="V2" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
@@ -877,25 +858,28 @@
       <c r="O3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="17" t="n">
+      <c r="W3" s="17" t="n">
         <v>100</v>
       </c>
     </row>
@@ -916,34 +900,10 @@
       <c r="L4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="U4" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="V4" s="17" t="n">
-        <v>1000000</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B5" s="15"/>
       <c r="D5" s="18"/>
@@ -952,34 +912,10 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
-      <c r="O5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" s="17" t="n">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B6" s="15"/>
       <c r="D6" s="18"/>
@@ -987,10 +923,25 @@
       <c r="F6" s="18"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
+      <c r="O6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B7" s="14"/>
       <c r="D7" s="18"/>
@@ -998,163 +949,224 @@
       <c r="F7" s="18"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
+      <c r="O7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="R7" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="S7" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="T7" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="U7" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="V7" s="13" t="n">
+        <v>35</v>
+      </c>
+      <c r="W7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
-      <c r="O8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
+      <c r="O8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17" t="n">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B9" s="14"/>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="O9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="T9" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U9" s="13" t="n">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="17" t="n">
+        <v>1000000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="D10" s="15" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="O10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
+        <v>38</v>
+      </c>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="D11" s="15" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="J11" s="14"/>
-      <c r="O11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B12" s="14"/>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="J12" s="14"/>
-      <c r="O12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
+      <c r="O12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="D13" s="14" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="J13" s="14"/>
+      <c r="O13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="U13" s="13" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="J14" s="14"/>
+      <c r="O14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="D15" s="15" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="J15" s="14"/>
+      <c r="O15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="D16" s="15" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="J16" s="14"/>
+      <c r="O16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1164,7 +1176,7 @@
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="D18" s="14" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -1179,10 +1191,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -1190,7 +1202,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B21" s="14"/>
       <c r="D21" s="14"/>
@@ -1208,7 +1220,7 @@
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="D23" s="14" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -1236,7 +1248,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B27" s="15"/>
       <c r="D27" s="14"/>
@@ -1244,19 +1256,19 @@
       <c r="F27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D28" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="D28" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="P1:U1"/>
-    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="D2:F3"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="D4:F7"/>
@@ -1265,14 +1277,16 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="P6:V6"/>
+    <mergeCell ref="W6:W7"/>
     <mergeCell ref="A7:B8"/>
-    <mergeCell ref="P8:U8"/>
     <mergeCell ref="A9:B11"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="A12:B19"/>
     <mergeCell ref="D12:F12"/>
+    <mergeCell ref="P12:U12"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>

--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t xml:space="preserve">Fakty</t>
   </si>
@@ -232,7 +232,7 @@
     <t xml:space="preserve">Testowanie</t>
   </si>
   <si>
-    <t xml:space="preserve">Średnie czasy wykonania</t>
+    <t xml:space="preserve">Średnie czasy wykonania (w s)</t>
   </si>
   <si>
     <t xml:space="preserve">Liczba kroków rozbudowy grafu</t>
@@ -277,25 +277,7 @@
     <t xml:space="preserve">unittest</t>
   </si>
   <si>
-    <t xml:space="preserve">Pierwszy (oparty na DFS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">770 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204 s</t>
+    <t xml:space="preserve">Oparty na DFS</t>
   </si>
   <si>
     <t xml:space="preserve">Początkowy stan jest kopiowany czterokrotnie i scalany przez dwa dodane wierzchołki, których krawędzie mają taką samą, określoną wartość</t>
@@ -311,16 +293,62 @@
     <t xml:space="preserve">Testy jednostkowe</t>
   </si>
   <si>
+    <t xml:space="preserve">q(n)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Złożoność (4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Symetria względem poziomu</t>
   </si>
   <si>
     <t xml:space="preserve">Symetria względem pionu</t>
   </si>
   <si>
+    <t xml:space="preserve">Średnie czasy wykonania (w ms)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wierzchołki dodawane mają zawsze 3 krawędzie</t>
   </si>
   <si>
-    <t xml:space="preserve">Drugi (Rekurencyjny)</t>
+    <t xml:space="preserve">Iteracyjny</t>
   </si>
   <si>
     <t xml:space="preserve">Wierzchołki scalające, należące do poprzedniego grafu mają zawsze 2 krawędzie</t>
@@ -329,37 +357,61 @@
     <t xml:space="preserve">Przeszukiwanie</t>
   </si>
   <si>
-    <t xml:space="preserve">Drugi (Iteracyjny)</t>
+    <t xml:space="preserve">Rekurencyjny</t>
   </si>
   <si>
     <t xml:space="preserve">DFS</t>
   </si>
   <si>
-    <t xml:space="preserve">q(n) dla iteracyjnego</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pre-order</t>
   </si>
   <si>
+    <t xml:space="preserve">Złożoność</t>
+  </si>
+  <si>
     <t xml:space="preserve">Po obliczeniu sumy ścieżek w grafie i potem dodaniu wierzchołka do tego grafu, suma ścieżek dla tego wierzchołka będzie równa sumie ścieżek dla sąsiadującego wierzchołka plus ilość wierzchołków pomnożona przez koszt krawędzi dodanej do grafu.</t>
   </si>
   <si>
     <t xml:space="preserve">Numerowanie</t>
   </si>
   <si>
+    <t xml:space="preserve">Niepotrzebne, wynika z użycia listy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klonowanie</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Przechowywanie grafu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graf jako lista zbiorów. Poszczególne zbiory reprezentują wierzchołki. W zbiorach znajdują się numery wierzchołków, z którymi dany wierzchołek jest połączony</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wykorzystanie pamięci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niepotrzebne, wynika z użycia listy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klonowanie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przechowywanie grafu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graf jako lista zbiorów. Poszczególne zbiory reprezentują wierzchołki. W zbiorach znajdują się numery wierzchołków, z którymi dany wierzchołek jest połączony</t>
   </si>
   <si>
     <t xml:space="preserve">Ilość krawędzi</t>
@@ -386,8 +438,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -418,21 +473,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <vertAlign val="subscript"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,7 +503,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFADC5E7"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFBCAED5"/>
       </patternFill>
     </fill>
     <fill>
@@ -484,7 +539,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBD7CB5"/>
-        <bgColor rgb="FFCC99FF"/>
+        <bgColor rgb="FFC7A0CB"/>
       </patternFill>
     </fill>
     <fill>
@@ -496,13 +551,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBEE3D3"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFADC5E7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8AA97"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFC7A0CB"/>
       </patternFill>
     </fill>
     <fill>
@@ -515,6 +570,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFCD3C1"/>
         <bgColor rgb="FFFFF685"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCAED5"/>
+        <bgColor rgb="FFC7A0CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7A0CB"/>
+        <bgColor rgb="FFBCAED5"/>
       </patternFill>
     </fill>
   </fills>
@@ -573,7 +640,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -650,7 +717,55 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -683,7 +798,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFADD58A"/>
+      <rgbColor rgb="FFBCAED5"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -692,7 +807,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066B3"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFADD58A"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFF450"/>
@@ -707,7 +822,7 @@
       <rgbColor rgb="FFFFF685"/>
       <rgbColor rgb="FFADC5E7"/>
       <rgbColor rgb="FFF8AA97"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFC7A0CB"/>
       <rgbColor rgb="FFFCD3C1"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
@@ -738,7 +853,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W21" activeCellId="0" sqref="W21"/>
+      <selection pane="topLeft" activeCell="V4" activeCellId="0" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -750,8 +865,10 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="14.31"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="16" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="13.06"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -816,25 +933,25 @@
         <v>14</v>
       </c>
       <c r="P2" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2" s="13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T2" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U2" s="13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V2" s="13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W2" s="6"/>
     </row>
@@ -859,51 +976,85 @@
         <v>19</v>
       </c>
       <c r="P3" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>25</v>
+        <v>0.00032</v>
+      </c>
+      <c r="Q3" s="16" t="n">
+        <v>0.00323</v>
+      </c>
+      <c r="R3" s="16" t="n">
+        <v>0.0468</v>
+      </c>
+      <c r="S3" s="16" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="T3" s="16" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="U3" s="16" t="n">
+        <v>168</v>
+      </c>
+      <c r="V3" s="16" t="n">
+        <v>2651</v>
       </c>
       <c r="W3" s="17" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="D4" s="18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="J4" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="19" t="n">
+        <f aca="false">P3/(POWER(POWER(4,P2),2))*(POWER(POWER(4,$S$2),2))/$S$3</f>
+        <v>1.96509745127436</v>
+      </c>
+      <c r="Q4" s="19" t="n">
+        <f aca="false">Q3/(POWER(POWER(4,Q2),2))*(POWER(POWER(4,$S$2),2))/$S$3</f>
+        <v>1.23970014992504</v>
+      </c>
+      <c r="R4" s="19" t="n">
+        <f aca="false">R3/(POWER(POWER(4,R2),2))*(POWER(POWER(4,$S$2),2))/$S$3</f>
+        <v>1.12263868065967</v>
+      </c>
+      <c r="S4" s="20" t="n">
+        <f aca="false">S3/(POWER(POWER(4,S2),2))*(POWER(POWER(4,$S$2),2))/$S$3</f>
+        <v>1</v>
+      </c>
+      <c r="T4" s="19" t="n">
+        <f aca="false">T3/(POWER(POWER(4,T2),2))*(POWER(POWER(4,$S$2),2))/$S$3</f>
+        <v>0.977323838080959</v>
+      </c>
+      <c r="U4" s="19" t="n">
+        <f aca="false">U3/(POWER(POWER(4,U2),2))*(POWER(POWER(4,$S$2),2))/$S$3</f>
+        <v>0.983883058470764</v>
+      </c>
+      <c r="V4" s="19" t="n">
+        <f aca="false">V3/(POWER(POWER(4,V2),2))*(POWER(POWER(4,$S$2),2))/$S$3</f>
+        <v>0.97034002529985</v>
+      </c>
+      <c r="W4" s="21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="15"/>
       <c r="D5" s="18"/>
@@ -915,7 +1066,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" s="15"/>
       <c r="D6" s="18"/>
@@ -924,7 +1075,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="O6" s="4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>5</v>
@@ -941,7 +1092,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="14"/>
       <c r="D7" s="18"/>
@@ -952,25 +1103,25 @@
       <c r="O7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="13" t="n">
+      <c r="P7" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="13" t="n">
+      <c r="Q7" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="R7" s="13" t="n">
+      <c r="R7" s="22" t="n">
         <v>15</v>
       </c>
-      <c r="S7" s="13" t="n">
+      <c r="S7" s="22" t="n">
         <v>20</v>
       </c>
-      <c r="T7" s="13" t="n">
+      <c r="T7" s="22" t="n">
         <v>25</v>
       </c>
-      <c r="U7" s="13" t="n">
+      <c r="U7" s="22" t="n">
         <v>30</v>
       </c>
-      <c r="V7" s="13" t="n">
+      <c r="V7" s="22" t="n">
         <v>35</v>
       </c>
       <c r="W7" s="6"/>
@@ -981,41 +1132,69 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="O8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="P8" s="23" t="n">
+        <v>0.00511</v>
+      </c>
+      <c r="Q8" s="23" t="n">
+        <v>0.01023</v>
+      </c>
+      <c r="R8" s="23" t="n">
+        <v>0.0158</v>
+      </c>
+      <c r="S8" s="23" t="n">
+        <v>0.0218</v>
+      </c>
+      <c r="T8" s="23" t="n">
+        <v>0.0278</v>
+      </c>
+      <c r="U8" s="23" t="n">
+        <v>0.0338</v>
+      </c>
+      <c r="V8" s="23" t="n">
+        <v>0.0405</v>
+      </c>
       <c r="W8" s="17" t="n">
         <v>1000000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="14"/>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="O9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>0.0226</v>
+      </c>
+      <c r="Q9" s="16" t="n">
+        <v>0.0926</v>
+      </c>
+      <c r="R9" s="16" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="S9" s="16" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="T9" s="16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="U9" s="16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="V9" s="16" t="n">
+        <v>1.58</v>
+      </c>
       <c r="W9" s="17" t="n">
         <v>1000000</v>
       </c>
@@ -1024,149 +1203,188 @@
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="D10" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
-      <c r="O10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="D11" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="J11" s="14"/>
+      <c r="O11" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="26" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" s="14"/>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="J12" s="14"/>
-      <c r="O12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" s="5" t="s">
+      <c r="O12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="28" t="n">
         <v>5</v>
       </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
+      <c r="Q12" s="28" t="n">
+        <v>10</v>
+      </c>
+      <c r="R12" s="28" t="n">
+        <v>15</v>
+      </c>
+      <c r="S12" s="28" t="n">
+        <v>20</v>
+      </c>
+      <c r="T12" s="28" t="n">
+        <v>25</v>
+      </c>
+      <c r="U12" s="28" t="n">
+        <v>30</v>
+      </c>
+      <c r="V12" s="28" t="n">
+        <v>35</v>
+      </c>
+      <c r="W12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="D13" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="J13" s="14"/>
-      <c r="O13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="13" t="n">
+      <c r="O13" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="29" t="n">
+        <f aca="false">(P8/P7)*($S$7/$S$8)</f>
+        <v>0.937614678899083</v>
+      </c>
+      <c r="Q13" s="29" t="n">
+        <f aca="false">(Q8/Q7)*($S$7/$S$8)</f>
+        <v>0.938532110091743</v>
+      </c>
+      <c r="R13" s="29" t="n">
+        <f aca="false">(R8/R7)*($S$7/$S$8)</f>
+        <v>0.966360856269113</v>
+      </c>
+      <c r="S13" s="30" t="n">
+        <f aca="false">(S8/S7)*($S$7/$S$8)</f>
         <v>1</v>
       </c>
-      <c r="Q13" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S13" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="T13" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U13" s="13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T13" s="29" t="n">
+        <f aca="false">(T8/T7)*($S$7/$S$8)</f>
+        <v>1.02018348623853</v>
+      </c>
+      <c r="U13" s="29" t="n">
+        <f aca="false">(U8/U7)*($S$7/$S$8)</f>
+        <v>1.03363914373089</v>
+      </c>
+      <c r="V13" s="29" t="n">
+        <f aca="false">(V8/V7)*($S$7/$S$8)</f>
+        <v>1.06159895150721</v>
+      </c>
+      <c r="W13" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="J14" s="14"/>
-      <c r="O14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
+      <c r="O14" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="29" t="n">
+        <f aca="false">(P9/POWER(P7,2))*(POWER($S$7,2)/$S$9)</f>
+        <v>0.8548463356974</v>
+      </c>
+      <c r="Q14" s="29" t="n">
+        <f aca="false">(Q9/POWER(Q7,2))*(POWER($S$7,2)/$S$9)</f>
+        <v>0.87565011820331</v>
+      </c>
+      <c r="R14" s="29" t="n">
+        <f aca="false">(R9/POWER(R7,2))*(POWER($S$7,2)/$S$9)</f>
+        <v>0.928815340162858</v>
+      </c>
+      <c r="S14" s="30" t="n">
+        <f aca="false">(S9/POWER(S7,3))*(POWER($S$7,3)/$S$9)</f>
+        <v>1</v>
+      </c>
+      <c r="T14" s="29" t="n">
+        <f aca="false">(T9/POWER(T7,2))*(POWER($S$7,2)/$S$9)</f>
+        <v>1.05910165484634</v>
+      </c>
+      <c r="U14" s="29" t="n">
+        <f aca="false">(U9/POWER(U7,2))*(POWER($S$7,2)/$S$9)</f>
+        <v>1.13475177304965</v>
+      </c>
+      <c r="V14" s="29" t="n">
+        <f aca="false">(V9/POWER(V7,2))*(POWER($S$7,2)/$S$9)</f>
+        <v>1.21966517103295</v>
+      </c>
+      <c r="W14" s="31" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="D15" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="J15" s="14"/>
-      <c r="O15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="D16" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="J16" s="14"/>
-      <c r="O16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1176,11 +1394,22 @@
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="D18" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="J18" s="14"/>
+      <c r="O18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14"/>
@@ -1188,26 +1417,65 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
+      <c r="O19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="U19" s="13" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
+      <c r="O20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
+      <c r="O21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14"/>
@@ -1215,12 +1483,21 @@
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
+      <c r="O22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="D23" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -1248,7 +1525,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="15"/>
       <c r="D27" s="14"/>
@@ -1256,14 +1533,14 @@
       <c r="F27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D28" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="D28" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="35">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="J1:L1"/>
@@ -1284,15 +1561,17 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="W11:W12"/>
     <mergeCell ref="A12:B19"/>
     <mergeCell ref="D12:F12"/>
-    <mergeCell ref="P12:U12"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F22"/>
+    <mergeCell ref="P18:U18"/>
     <mergeCell ref="A21:B26"/>
     <mergeCell ref="D23:F27"/>
     <mergeCell ref="A27:B27"/>

--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t xml:space="preserve">Fakty</t>
   </si>
@@ -411,7 +411,7 @@
     <t xml:space="preserve">Graf jako lista zbiorów. Poszczególne zbiory reprezentują wierzchołki. W zbiorach znajdują się numery wierzchołków, z którymi dany wierzchołek jest połączony</t>
   </si>
   <si>
-    <t xml:space="preserve">Wykorzystanie pamięci</t>
+    <t xml:space="preserve">Wykorzystanie pamięci (bajty)</t>
   </si>
   <si>
     <t xml:space="preserve">Ilość krawędzi</t>
@@ -421,10 +421,19 @@
   </si>
   <si>
     <t xml:space="preserve">Wagi krawędzi każdego wierzchołka, który ma dwa krawędzie, są różnowartościowe. Inaczej jest w przypadku wierzchołków, które posiadają trzy krawędzie. U nich są to identyczne wartości.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iloraz wartości obecnej i poprzedniej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">Alternatywa:
 Specjalne klasy o nazwie Vertex oraz Edge. W liście trzymane są Vertex. Edge posiada 2 Vertex oraz wartość.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Różnica wartości obecnej i poprzedniej</t>
   </si>
   <si>
     <t xml:space="preserve">Graf jest dwudzielny</t>
@@ -438,11 +447,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
     <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -640,7 +650,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -729,10 +739,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -766,6 +772,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -850,10 +864,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V4" activeCellId="0" sqref="V4"/>
+      <selection pane="topLeft" activeCell="R21" activeCellId="0" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -864,8 +878,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.95"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="33.07"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="16" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="13.06"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
@@ -1103,25 +1118,25 @@
       <c r="O7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="22" t="n">
+      <c r="P7" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="22" t="n">
+      <c r="Q7" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="R7" s="22" t="n">
+      <c r="R7" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="S7" s="22" t="n">
+      <c r="S7" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="T7" s="22" t="n">
+      <c r="T7" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="U7" s="22" t="n">
+      <c r="U7" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="V7" s="22" t="n">
+      <c r="V7" s="13" t="n">
         <v>35</v>
       </c>
       <c r="W7" s="6"/>
@@ -1134,25 +1149,25 @@
       <c r="O8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="23" t="n">
+      <c r="P8" s="22" t="n">
         <v>0.00511</v>
       </c>
-      <c r="Q8" s="23" t="n">
+      <c r="Q8" s="22" t="n">
         <v>0.01023</v>
       </c>
-      <c r="R8" s="23" t="n">
+      <c r="R8" s="22" t="n">
         <v>0.0158</v>
       </c>
-      <c r="S8" s="23" t="n">
+      <c r="S8" s="22" t="n">
         <v>0.0218</v>
       </c>
-      <c r="T8" s="23" t="n">
+      <c r="T8" s="22" t="n">
         <v>0.0278</v>
       </c>
-      <c r="U8" s="23" t="n">
+      <c r="U8" s="22" t="n">
         <v>0.0338</v>
       </c>
-      <c r="V8" s="23" t="n">
+      <c r="V8" s="22" t="n">
         <v>0.0405</v>
       </c>
       <c r="W8" s="17" t="n">
@@ -1219,19 +1234,19 @@
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="J11" s="14"/>
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="25" t="s">
+      <c r="P11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="26" t="s">
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="25" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1246,31 +1261,31 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="J12" s="14"/>
-      <c r="O12" s="27" t="s">
+      <c r="O12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="28" t="n">
+      <c r="P12" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="Q12" s="28" t="n">
+      <c r="Q12" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="R12" s="28" t="n">
+      <c r="R12" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="S12" s="28" t="n">
+      <c r="S12" s="27" t="n">
         <v>20</v>
       </c>
-      <c r="T12" s="28" t="n">
+      <c r="T12" s="27" t="n">
         <v>25</v>
       </c>
-      <c r="U12" s="28" t="n">
+      <c r="U12" s="27" t="n">
         <v>30</v>
       </c>
-      <c r="V12" s="28" t="n">
+      <c r="V12" s="27" t="n">
         <v>35</v>
       </c>
-      <c r="W12" s="26"/>
+      <c r="W12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="14"/>
@@ -1281,38 +1296,38 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="J13" s="14"/>
-      <c r="O13" s="27" t="s">
+      <c r="O13" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="P13" s="29" t="n">
+      <c r="P13" s="28" t="n">
         <f aca="false">(P8/P7)*($S$7/$S$8)</f>
         <v>0.937614678899083</v>
       </c>
-      <c r="Q13" s="29" t="n">
+      <c r="Q13" s="28" t="n">
         <f aca="false">(Q8/Q7)*($S$7/$S$8)</f>
         <v>0.938532110091743</v>
       </c>
-      <c r="R13" s="29" t="n">
+      <c r="R13" s="28" t="n">
         <f aca="false">(R8/R7)*($S$7/$S$8)</f>
         <v>0.966360856269113</v>
       </c>
-      <c r="S13" s="30" t="n">
+      <c r="S13" s="29" t="n">
         <f aca="false">(S8/S7)*($S$7/$S$8)</f>
         <v>1</v>
       </c>
-      <c r="T13" s="29" t="n">
+      <c r="T13" s="28" t="n">
         <f aca="false">(T8/T7)*($S$7/$S$8)</f>
         <v>1.02018348623853</v>
       </c>
-      <c r="U13" s="29" t="n">
+      <c r="U13" s="28" t="n">
         <f aca="false">(U8/U7)*($S$7/$S$8)</f>
         <v>1.03363914373089</v>
       </c>
-      <c r="V13" s="29" t="n">
+      <c r="V13" s="28" t="n">
         <f aca="false">(V8/V7)*($S$7/$S$8)</f>
         <v>1.06159895150721</v>
       </c>
-      <c r="W13" s="31" t="s">
+      <c r="W13" s="30" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1325,38 +1340,38 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="J14" s="14"/>
-      <c r="O14" s="27" t="s">
+      <c r="O14" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="P14" s="29" t="n">
+      <c r="P14" s="28" t="n">
         <f aca="false">(P9/POWER(P7,2))*(POWER($S$7,2)/$S$9)</f>
         <v>0.8548463356974</v>
       </c>
-      <c r="Q14" s="29" t="n">
+      <c r="Q14" s="28" t="n">
         <f aca="false">(Q9/POWER(Q7,2))*(POWER($S$7,2)/$S$9)</f>
         <v>0.87565011820331</v>
       </c>
-      <c r="R14" s="29" t="n">
+      <c r="R14" s="28" t="n">
         <f aca="false">(R9/POWER(R7,2))*(POWER($S$7,2)/$S$9)</f>
         <v>0.928815340162858</v>
       </c>
-      <c r="S14" s="30" t="n">
+      <c r="S14" s="29" t="n">
         <f aca="false">(S9/POWER(S7,3))*(POWER($S$7,3)/$S$9)</f>
         <v>1</v>
       </c>
-      <c r="T14" s="29" t="n">
+      <c r="T14" s="28" t="n">
         <f aca="false">(T9/POWER(T7,2))*(POWER($S$7,2)/$S$9)</f>
         <v>1.05910165484634</v>
       </c>
-      <c r="U14" s="29" t="n">
+      <c r="U14" s="28" t="n">
         <f aca="false">(U9/POWER(U7,2))*(POWER($S$7,2)/$S$9)</f>
         <v>1.13475177304965</v>
       </c>
-      <c r="V14" s="29" t="n">
+      <c r="V14" s="28" t="n">
         <f aca="false">(V9/POWER(V7,2))*(POWER($S$7,2)/$S$9)</f>
         <v>1.21966517103295</v>
       </c>
-      <c r="W14" s="31" t="s">
+      <c r="W14" s="30" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1452,12 +1467,24 @@
       <c r="O20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
+      <c r="P20" s="16" t="n">
+        <v>144</v>
+      </c>
+      <c r="Q20" s="16" t="n">
+        <v>336</v>
+      </c>
+      <c r="R20" s="16" t="n">
+        <v>1056</v>
+      </c>
+      <c r="S20" s="16" t="n">
+        <v>3936</v>
+      </c>
+      <c r="T20" s="16" t="n">
+        <v>15456</v>
+      </c>
+      <c r="U20" s="16" t="n">
+        <v>61536</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
@@ -1468,14 +1495,31 @@
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="O21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
+        <v>49</v>
+      </c>
+      <c r="P21" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="31" t="n">
+        <f aca="false">Q20/P20</f>
+        <v>2.33333333333333</v>
+      </c>
+      <c r="R21" s="31" t="n">
+        <f aca="false">R20/Q20</f>
+        <v>3.14285714285714</v>
+      </c>
+      <c r="S21" s="31" t="n">
+        <f aca="false">S20/R20</f>
+        <v>3.72727272727273</v>
+      </c>
+      <c r="T21" s="31" t="n">
+        <f aca="false">T20/S20</f>
+        <v>3.92682926829268</v>
+      </c>
+      <c r="U21" s="31" t="n">
+        <f aca="false">U20/T20</f>
+        <v>3.98136645962733</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14"/>
@@ -1483,24 +1527,26 @@
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="O22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="D23" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
+      <c r="O23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14"/>
@@ -1508,6 +1554,27 @@
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
+      <c r="O24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="R24" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="S24" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="T24" s="13" t="n">
+        <v>41</v>
+      </c>
+      <c r="U24" s="13" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14"/>
@@ -1515,6 +1582,27 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
+      <c r="O25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="16" t="n">
+        <v>84</v>
+      </c>
+      <c r="Q25" s="16" t="n">
+        <v>948</v>
+      </c>
+      <c r="R25" s="16" t="n">
+        <v>1908</v>
+      </c>
+      <c r="S25" s="16" t="n">
+        <v>2952</v>
+      </c>
+      <c r="T25" s="16" t="n">
+        <v>4096</v>
+      </c>
+      <c r="U25" s="16" t="n">
+        <v>5336</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14"/>
@@ -1522,10 +1610,36 @@
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
+      <c r="O26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="32" t="n">
+        <f aca="false">Q25-P25</f>
+        <v>864</v>
+      </c>
+      <c r="R26" s="32" t="n">
+        <f aca="false">R25-Q25</f>
+        <v>960</v>
+      </c>
+      <c r="S26" s="32" t="n">
+        <f aca="false">S25-R25</f>
+        <v>1044</v>
+      </c>
+      <c r="T26" s="32" t="n">
+        <f aca="false">T25-S25</f>
+        <v>1144</v>
+      </c>
+      <c r="U26" s="32" t="n">
+        <f aca="false">U25-T25</f>
+        <v>1240</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B27" s="15"/>
       <c r="D27" s="14"/>
@@ -1533,14 +1647,77 @@
       <c r="F27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="O28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="O29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P29" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="R29" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="S29" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="T29" s="13" t="n">
+        <v>41</v>
+      </c>
+      <c r="U29" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="O30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="16" t="n">
+        <v>136</v>
+      </c>
+      <c r="Q30" s="16" t="n">
+        <v>136</v>
+      </c>
+      <c r="R30" s="16" t="n">
+        <v>144</v>
+      </c>
+      <c r="S30" s="16" t="n">
+        <v>156</v>
+      </c>
+      <c r="T30" s="16" t="n">
+        <v>160</v>
+      </c>
+      <c r="U30" s="16" t="n">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="37">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="J1:L1"/>
@@ -1574,8 +1751,10 @@
     <mergeCell ref="P18:U18"/>
     <mergeCell ref="A21:B26"/>
     <mergeCell ref="D23:F27"/>
+    <mergeCell ref="P23:U23"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D28:F36"/>
+    <mergeCell ref="P28:U28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t xml:space="preserve">Fakty</t>
   </si>
@@ -232,9 +232,6 @@
     <t xml:space="preserve">Testowanie</t>
   </si>
   <si>
-    <t xml:space="preserve">Średnie czasy wykonania (w s)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Liczba kroków rozbudowy grafu</t>
   </si>
   <si>
@@ -262,7 +259,7 @@
     <t xml:space="preserve">Poprawnościowe</t>
   </si>
   <si>
-    <t xml:space="preserve">Algorytm</t>
+    <t xml:space="preserve">Algorytm oparty na DFS</t>
   </si>
   <si>
     <t xml:space="preserve">Maksymalnie 3 krawędzie na wierzchołek</t>
@@ -277,7 +274,7 @@
     <t xml:space="preserve">unittest</t>
   </si>
   <si>
-    <t xml:space="preserve">Oparty na DFS</t>
+    <t xml:space="preserve">Średni czas wykonania (w ms)</t>
   </si>
   <si>
     <t xml:space="preserve">Początkowy stan jest kopiowany czterokrotnie i scalany przez dwa dodane wierzchołki, których krawędzie mają taką samą, określoną wartość</t>
@@ -342,13 +339,10 @@
     <t xml:space="preserve">Symetria względem pionu</t>
   </si>
   <si>
-    <t xml:space="preserve">Średnie czasy wykonania (w ms)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wierzchołki dodawane mają zawsze 3 krawędzie</t>
   </si>
   <si>
-    <t xml:space="preserve">Iteracyjny</t>
+    <t xml:space="preserve">Algorytm iteracyjny</t>
   </si>
   <si>
     <t xml:space="preserve">Wierzchołki scalające, należące do poprzedniego grafu mają zawsze 2 krawędzie</t>
@@ -357,7 +351,7 @@
     <t xml:space="preserve">Przeszukiwanie</t>
   </si>
   <si>
-    <t xml:space="preserve">Rekurencyjny</t>
+    <t xml:space="preserve">Złożoność n</t>
   </si>
   <si>
     <t xml:space="preserve">DFS</t>
@@ -366,19 +360,16 @@
     <t xml:space="preserve">Pre-order</t>
   </si>
   <si>
-    <t xml:space="preserve">Złożoność</t>
-  </si>
-  <si>
     <t xml:space="preserve">Po obliczeniu sumy ścieżek w grafie i potem dodaniu wierzchołka do tego grafu, suma ścieżek dla tego wierzchołka będzie równa sumie ścieżek dla sąsiadującego wierzchołka plus ilość wierzchołków pomnożona przez koszt krawędzi dodanej do grafu.</t>
   </si>
   <si>
     <t xml:space="preserve">Numerowanie</t>
   </si>
   <si>
+    <t xml:space="preserve">Algorytm rekurencyjny</t>
+  </si>
+  <si>
     <t xml:space="preserve">Niepotrzebne, wynika z użycia listy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
   </si>
   <si>
     <t xml:space="preserve">Klonowanie</t>
@@ -391,7 +382,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">n</t>
+      <t xml:space="preserve">Złożoność n</t>
     </r>
     <r>
       <rPr>
@@ -411,29 +402,47 @@
     <t xml:space="preserve">Graf jako lista zbiorów. Poszczególne zbiory reprezentują wierzchołki. W zbiorach znajdują się numery wierzchołków, z którymi dany wierzchołek jest połączony</t>
   </si>
   <si>
+    <t xml:space="preserve">Złożoność</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilość krawędzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E = V-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wykorzystanie pamięci (bajty)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilość krawędzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E = V-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wagi krawędzi każdego wierzchołka, który ma dwa krawędzie, są różnowartościowe. Inaczej jest w przypadku wierzchołków, które posiadają trzy krawędzie. U nich są to identyczne wartości.</t>
   </si>
   <si>
-    <t xml:space="preserve">Iloraz wartości obecnej i poprzedniej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Alternatywa:
 Specjalne klasy o nazwie Vertex oraz Edge. W liście trzymane są Vertex. Edge posiada 2 Vertex oraz wartość.</t>
   </si>
   <si>
-    <t xml:space="preserve">Różnica wartości obecnej i poprzedniej</t>
+    <t xml:space="preserve">n</t>
   </si>
   <si>
     <t xml:space="preserve">Graf jest dwudzielny</t>
@@ -454,7 +463,7 @@
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -490,6 +499,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <vertAlign val="subscript"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -497,7 +511,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,12 +522,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFED1C24"/>
         <bgColor rgb="FFF04E4D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFADC5E7"/>
-        <bgColor rgb="FFBCAED5"/>
       </patternFill>
     </fill>
     <fill>
@@ -566,6 +574,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFADC5E7"/>
+        <bgColor rgb="FFBCAED5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF8AA97"/>
         <bgColor rgb="FFC7A0CB"/>
       </patternFill>
@@ -579,7 +593,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCD3C1"/>
-        <bgColor rgb="FFFFF685"/>
+        <bgColor rgb="FFFCD4D1"/>
       </patternFill>
     </fill>
     <fill>
@@ -590,12 +604,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFCD4D1"/>
+        <bgColor rgb="FFFCD3C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC7A0CB"/>
         <bgColor rgb="FFBCAED5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -619,6 +639,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
       <bottom/>
@@ -650,7 +677,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -667,51 +694,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -723,7 +750,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -739,51 +766,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -821,7 +856,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066B3"/>
-      <rgbColor rgb="FFADD58A"/>
+      <rgbColor rgb="FFFCD4D1"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFF450"/>
@@ -840,7 +875,7 @@
       <rgbColor rgb="FFFCD3C1"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFADD58A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFF04E4D"/>
@@ -864,10 +899,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R21" activeCellId="0" sqref="R21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P28" activeCellId="0" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -904,91 +939,88 @@
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="6" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="U2" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="V2" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="W2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S2" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="T2" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U2" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="V2" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="W2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="B3" s="13"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="J3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="J3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="O3" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="P3" s="16" t="n">
         <v>0.00032</v>
@@ -1016,24 +1048,24 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="D4" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="O4" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="P4" s="19" t="n">
         <f aca="false">P3/(POWER(POWER(4,P2),2))*(POWER(POWER(4,$S$2),2))/$S$3</f>
@@ -1064,110 +1096,107 @@
         <v>0.97034002529985</v>
       </c>
       <c r="W4" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="14"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="15"/>
+      <c r="A6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="14"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="O6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="5" t="s">
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="P6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="6" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="14"/>
+      <c r="A7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="13"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="O7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="13" t="n">
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="O7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" s="13" t="n">
+      <c r="Q7" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="R7" s="13" t="n">
+      <c r="R7" s="22" t="n">
         <v>15</v>
       </c>
-      <c r="S7" s="13" t="n">
+      <c r="S7" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="T7" s="13" t="n">
+      <c r="T7" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="U7" s="13" t="n">
+      <c r="U7" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="V7" s="13" t="n">
+      <c r="V7" s="12" t="n">
         <v>35</v>
       </c>
-      <c r="W7" s="6"/>
+      <c r="W7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="O8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="22" t="n">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="O8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="23" t="n">
         <v>0.00511</v>
       </c>
-      <c r="Q8" s="22" t="n">
+      <c r="Q8" s="23" t="n">
         <v>0.01023</v>
       </c>
-      <c r="R8" s="22" t="n">
+      <c r="R8" s="23" t="n">
         <v>0.0158</v>
       </c>
-      <c r="S8" s="22" t="n">
+      <c r="S8" s="23" t="n">
         <v>0.0218</v>
       </c>
-      <c r="T8" s="22" t="n">
+      <c r="T8" s="23" t="n">
         <v>0.0278</v>
       </c>
-      <c r="U8" s="22" t="n">
+      <c r="U8" s="23" t="n">
         <v>0.0338</v>
       </c>
-      <c r="V8" s="22" t="n">
+      <c r="V8" s="23" t="n">
         <v>0.0405</v>
       </c>
       <c r="W8" s="17" t="n">
@@ -1175,297 +1204,294 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="14"/>
+      <c r="A9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="13"/>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="O9" s="12" t="s">
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="O9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="25" t="n">
+        <f aca="false">(P8/P7)*($S$7/$S$8)</f>
+        <v>0.937614678899083</v>
+      </c>
+      <c r="Q9" s="25" t="n">
+        <f aca="false">(Q8/Q7)*($S$7/$S$8)</f>
+        <v>0.938532110091743</v>
+      </c>
+      <c r="R9" s="25" t="n">
+        <f aca="false">(R8/R7)*($S$7/$S$8)</f>
+        <v>0.966360856269113</v>
+      </c>
+      <c r="S9" s="26" t="n">
+        <f aca="false">(S8/S7)*($S$7/$S$8)</f>
+        <v>1</v>
+      </c>
+      <c r="T9" s="25" t="n">
+        <f aca="false">(T8/T7)*($S$7/$S$8)</f>
+        <v>1.02018348623853</v>
+      </c>
+      <c r="U9" s="25" t="n">
+        <f aca="false">(U8/U7)*($S$7/$S$8)</f>
+        <v>1.03363914373089</v>
+      </c>
+      <c r="V9" s="25" t="n">
+        <f aca="false">(V8/V7)*($S$7/$S$8)</f>
+        <v>1.06159895150721</v>
+      </c>
+      <c r="W9" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="D10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="D11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="16" t="n">
-        <v>0.0226</v>
-      </c>
-      <c r="Q9" s="16" t="n">
-        <v>0.0926</v>
-      </c>
-      <c r="R9" s="16" t="n">
-        <v>0.221</v>
-      </c>
-      <c r="S9" s="16" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="T9" s="16" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="U9" s="16" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="V9" s="16" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W9" s="17" t="n">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="D10" s="15" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="J11" s="13"/>
+      <c r="P11" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="D11" s="15" t="s">
+      <c r="B12" s="13"/>
+      <c r="D12" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="J11" s="14"/>
-      <c r="O11" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="D12" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="J12" s="14"/>
-      <c r="O12" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12" s="27" t="n">
+      <c r="J12" s="13"/>
+      <c r="O12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="29" t="n">
         <v>5</v>
       </c>
-      <c r="Q12" s="27" t="n">
+      <c r="Q12" s="29" t="n">
         <v>10</v>
       </c>
-      <c r="R12" s="27" t="n">
+      <c r="R12" s="29" t="n">
         <v>15</v>
       </c>
-      <c r="S12" s="27" t="n">
+      <c r="S12" s="29" t="n">
         <v>20</v>
       </c>
-      <c r="T12" s="27" t="n">
+      <c r="T12" s="29" t="n">
         <v>25</v>
       </c>
-      <c r="U12" s="27" t="n">
+      <c r="U12" s="29" t="n">
         <v>30</v>
       </c>
-      <c r="V12" s="27" t="n">
+      <c r="V12" s="29" t="n">
         <v>35</v>
       </c>
-      <c r="W12" s="25"/>
+      <c r="W12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="D13" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="O13" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="28" t="n">
-        <f aca="false">(P8/P7)*($S$7/$S$8)</f>
-        <v>0.937614678899083</v>
-      </c>
-      <c r="Q13" s="28" t="n">
-        <f aca="false">(Q8/Q7)*($S$7/$S$8)</f>
-        <v>0.938532110091743</v>
-      </c>
-      <c r="R13" s="28" t="n">
-        <f aca="false">(R8/R7)*($S$7/$S$8)</f>
-        <v>0.966360856269113</v>
-      </c>
-      <c r="S13" s="29" t="n">
-        <f aca="false">(S8/S7)*($S$7/$S$8)</f>
-        <v>1</v>
-      </c>
-      <c r="T13" s="28" t="n">
-        <f aca="false">(T8/T7)*($S$7/$S$8)</f>
-        <v>1.02018348623853</v>
-      </c>
-      <c r="U13" s="28" t="n">
-        <f aca="false">(U8/U7)*($S$7/$S$8)</f>
-        <v>1.03363914373089</v>
-      </c>
-      <c r="V13" s="28" t="n">
-        <f aca="false">(V8/V7)*($S$7/$S$8)</f>
-        <v>1.06159895150721</v>
-      </c>
-      <c r="W13" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="O13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="16" t="n">
+        <v>0.0226</v>
+      </c>
+      <c r="Q13" s="16" t="n">
+        <v>0.0926</v>
+      </c>
+      <c r="R13" s="16" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="S13" s="16" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="T13" s="16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="U13" s="16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="V13" s="16" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W13" s="17" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="J14" s="14"/>
-      <c r="O14" s="26" t="s">
+      <c r="J14" s="13"/>
+      <c r="O14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="30" t="n">
+        <f aca="false">(P13/POWER(P12,2))*(POWER($S$12,2)/$S$13)</f>
+        <v>0.8548463356974</v>
+      </c>
+      <c r="Q14" s="30" t="n">
+        <f aca="false">(Q13/POWER(Q12,2))*(POWER($S$12,2)/$S$13)</f>
+        <v>0.87565011820331</v>
+      </c>
+      <c r="R14" s="30" t="n">
+        <f aca="false">(R13/POWER(R12,2))*(POWER($S$12,2)/$S$13)</f>
+        <v>0.928815340162858</v>
+      </c>
+      <c r="S14" s="30" t="n">
+        <f aca="false">(S13/POWER(S12,2))*(POWER($S$12,2)/$S$13)</f>
+        <v>1</v>
+      </c>
+      <c r="T14" s="30" t="n">
+        <f aca="false">(T13/POWER(T12,2))*(POWER($S$12,2)/$S$13)</f>
+        <v>1.05910165484634</v>
+      </c>
+      <c r="U14" s="30" t="n">
+        <f aca="false">(U13/POWER(U12,2))*(POWER($S$12,2)/$S$13)</f>
+        <v>1.13475177304965</v>
+      </c>
+      <c r="V14" s="30" t="n">
+        <f aca="false">(V13/POWER(V12,2))*(POWER($S$12,2)/$S$13)</f>
+        <v>1.21966517103295</v>
+      </c>
+      <c r="W14" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="D16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="P14" s="28" t="n">
-        <f aca="false">(P9/POWER(P7,2))*(POWER($S$7,2)/$S$9)</f>
-        <v>0.8548463356974</v>
-      </c>
-      <c r="Q14" s="28" t="n">
-        <f aca="false">(Q9/POWER(Q7,2))*(POWER($S$7,2)/$S$9)</f>
-        <v>0.87565011820331</v>
-      </c>
-      <c r="R14" s="28" t="n">
-        <f aca="false">(R9/POWER(R7,2))*(POWER($S$7,2)/$S$9)</f>
-        <v>0.928815340162858</v>
-      </c>
-      <c r="S14" s="29" t="n">
-        <f aca="false">(S9/POWER(S7,3))*(POWER($S$7,3)/$S$9)</f>
-        <v>1</v>
-      </c>
-      <c r="T14" s="28" t="n">
-        <f aca="false">(T9/POWER(T7,2))*(POWER($S$7,2)/$S$9)</f>
-        <v>1.05910165484634</v>
-      </c>
-      <c r="U14" s="28" t="n">
-        <f aca="false">(U9/POWER(U7,2))*(POWER($S$7,2)/$S$9)</f>
-        <v>1.13475177304965</v>
-      </c>
-      <c r="V14" s="28" t="n">
-        <f aca="false">(V9/POWER(V7,2))*(POWER($S$7,2)/$S$9)</f>
-        <v>1.21966517103295</v>
-      </c>
-      <c r="W14" s="30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="D15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="D16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="J16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="J17" s="14"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="D18" s="14" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="P18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="O19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="U19" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="V19" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="O18" s="4" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="O20" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="O19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P19" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="T19" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U19" s="13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="O20" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="P20" s="16" t="n">
         <v>144</v>
@@ -1485,105 +1511,110 @@
       <c r="U20" s="16" t="n">
         <v>61536</v>
       </c>
+      <c r="V20" s="31"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="O21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" s="32" t="n">
+        <f aca="false">P20/POWER(4,P19)*POWER(4,$S$19)/$S$20</f>
+        <v>2.34146341463415</v>
+      </c>
+      <c r="Q21" s="32" t="n">
+        <f aca="false">Q20/POWER(4,Q19)*POWER(4,$S$19)/$S$20</f>
+        <v>1.36585365853659</v>
+      </c>
+      <c r="R21" s="32" t="n">
+        <f aca="false">R20/POWER(4,R19)*POWER(4,$S$19)/$S$20</f>
+        <v>1.07317073170732</v>
+      </c>
+      <c r="S21" s="33" t="n">
+        <f aca="false">S20/POWER(4,S19)*POWER(4,$S$19)/$S$20</f>
+        <v>1</v>
+      </c>
+      <c r="T21" s="32" t="n">
+        <f aca="false">T20/POWER(4,T19)*POWER(4,$S$19)/$S$20</f>
+        <v>0.981707317073171</v>
+      </c>
+      <c r="U21" s="32" t="n">
+        <f aca="false">U20/POWER(4,U19)*POWER(4,$S$19)/$S$20</f>
+        <v>0.977134146341463</v>
+      </c>
+      <c r="V21" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="D23" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="O21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="P21" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q21" s="31" t="n">
-        <f aca="false">Q20/P20</f>
-        <v>2.33333333333333</v>
-      </c>
-      <c r="R21" s="31" t="n">
-        <f aca="false">R20/Q20</f>
-        <v>3.14285714285714</v>
-      </c>
-      <c r="S21" s="31" t="n">
-        <f aca="false">S20/R20</f>
-        <v>3.72727272727273</v>
-      </c>
-      <c r="T21" s="31" t="n">
-        <f aca="false">T20/S20</f>
-        <v>3.92682926829268</v>
-      </c>
-      <c r="U21" s="31" t="n">
-        <f aca="false">U20/T20</f>
-        <v>3.98136645962733</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="D23" s="14" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="P23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="O24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="R24" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="S24" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="T24" s="12" t="n">
+        <v>41</v>
+      </c>
+      <c r="U24" s="12" t="n">
         <v>51</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="O23" s="4" t="s">
+      <c r="V24" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="O25" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="O24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P24" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="13" t="n">
-        <v>11</v>
-      </c>
-      <c r="R24" s="13" t="n">
-        <v>21</v>
-      </c>
-      <c r="S24" s="13" t="n">
-        <v>31</v>
-      </c>
-      <c r="T24" s="13" t="n">
-        <v>41</v>
-      </c>
-      <c r="U24" s="13" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="O25" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="P25" s="16" t="n">
         <v>84</v>
@@ -1603,99 +1634,104 @@
       <c r="U25" s="16" t="n">
         <v>5336</v>
       </c>
+      <c r="V25" s="31"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="O26" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26" s="32" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="O26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="32" t="n">
+        <f aca="false">P25/P24*$S$24/$S$25</f>
+        <v>0.882113821138211</v>
+      </c>
+      <c r="Q26" s="32" t="n">
+        <f aca="false">Q25/Q24*$S$24/$S$25</f>
+        <v>0.905025868440503</v>
+      </c>
+      <c r="R26" s="32" t="n">
+        <f aca="false">R25/R24*$S$24/$S$25</f>
+        <v>0.954123112659698</v>
+      </c>
+      <c r="S26" s="34" t="n">
+        <f aca="false">S25/S24*$S$24/$S$25</f>
+        <v>1</v>
+      </c>
+      <c r="T26" s="32" t="n">
+        <f aca="false">T25/T24*$S$24/$S$25</f>
+        <v>1.04911097891467</v>
+      </c>
+      <c r="U26" s="32" t="n">
+        <f aca="false">U25/U24*$S$24/$S$25</f>
+        <v>1.09873000690791</v>
+      </c>
+      <c r="V26" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="Q26" s="32" t="n">
-        <f aca="false">Q25-P25</f>
-        <v>864</v>
-      </c>
-      <c r="R26" s="32" t="n">
-        <f aca="false">R25-Q25</f>
-        <v>960</v>
-      </c>
-      <c r="S26" s="32" t="n">
-        <f aca="false">S25-R25</f>
-        <v>1044</v>
-      </c>
-      <c r="T26" s="32" t="n">
-        <f aca="false">T25-S25</f>
-        <v>1144</v>
-      </c>
-      <c r="U26" s="32" t="n">
-        <f aca="false">U25-T25</f>
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D28" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="O28" s="4" t="s">
+      <c r="D28" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="P28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="O29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="R29" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="S29" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="T29" s="12" t="n">
+        <v>41</v>
+      </c>
+      <c r="U29" s="12" t="n">
+        <v>51</v>
+      </c>
+      <c r="V29" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="O30" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="O29" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P29" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="13" t="n">
-        <v>11</v>
-      </c>
-      <c r="R29" s="13" t="n">
-        <v>21</v>
-      </c>
-      <c r="S29" s="13" t="n">
-        <v>31</v>
-      </c>
-      <c r="T29" s="13" t="n">
-        <v>41</v>
-      </c>
-      <c r="U29" s="13" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="O30" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="P30" s="16" t="n">
         <v>136</v>
@@ -1715,9 +1751,45 @@
       <c r="U30" s="16" t="n">
         <v>168</v>
       </c>
+      <c r="V30" s="31"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="O31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" s="32" t="n">
+        <f aca="false">P30*1/$S$30</f>
+        <v>0.871794871794872</v>
+      </c>
+      <c r="Q31" s="32" t="n">
+        <f aca="false">Q30*1/$S$30</f>
+        <v>0.871794871794872</v>
+      </c>
+      <c r="R31" s="32" t="n">
+        <f aca="false">R30*1/$S$30</f>
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S31" s="34" t="n">
+        <f aca="false">S30*1/$S$30</f>
+        <v>1</v>
+      </c>
+      <c r="T31" s="32" t="n">
+        <f aca="false">T30*1/$S$30</f>
+        <v>1.02564102564103</v>
+      </c>
+      <c r="U31" s="32" t="n">
+        <f aca="false">U30*1/$S$30</f>
+        <v>1.07692307692308</v>
+      </c>
+      <c r="V31" s="27" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="40">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="J1:L1"/>
@@ -1749,12 +1821,15 @@
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F22"/>
     <mergeCell ref="P18:U18"/>
+    <mergeCell ref="V19:V20"/>
     <mergeCell ref="A21:B26"/>
     <mergeCell ref="D23:F27"/>
     <mergeCell ref="P23:U23"/>
+    <mergeCell ref="V24:V25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D28:F36"/>
     <mergeCell ref="P28:U28"/>
+    <mergeCell ref="V29:V30"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
